--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14235" windowHeight="4170"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13125" windowHeight="4425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Meal Search Results" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C12"/>
+  <oleSize ref="A1:E12"/>
 </workbook>
 </file>
 
@@ -434,7 +434,7 @@
   </sheetPr>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -677,7 +677,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13125" windowHeight="4425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12960" windowHeight="1785"/>
   </bookViews>
   <sheets>
     <sheet name="Meal Search Results" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E12"/>
+  <oleSize ref="A6:B9"/>
 </workbook>
 </file>
 
@@ -434,7 +434,9 @@
   </sheetPr>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -677,7 +679,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
